--- a/biology/Botanique/Gossypium_hirsutum/Gossypium_hirsutum.xlsx
+++ b/biology/Botanique/Gossypium_hirsutum/Gossypium_hirsutum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gossypium hirsutum, aussi appelé « coton mexicain » ou « coton pays » (Antilles françaises), est une espèce de plantes dicotylédones de la famille des Malvaceae, sous-famille des Malvoideae, originaire des régions tropicales d'Amérique. C'est une des cinquante espèces du genre Gossypium, et l'une des quatre domestiquées pour la production de coton.
 C'est l'espèce de cotonnier la plus largement cultivée aux États-Unis et dans le monde. Elle fournit environ 90 % de la production mondiale de coton (fibres textiles). La trituration des graines fournit aussi des sous-produits utilisés en alimentation humaine et animale, en particulier huile de coton et tourteau de coton (en). La plante est toxique pour les mammifères du fait de la présence de gossypol dans tous ses organes. 
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gossypium hirsutum est une plante herbacée annuelle qui atteint 60 à 150 cm de hauteur. L'axe de la tige est vert, parfois rougeâtre, et présente une pilosité simple. Les feuilles sont lobées, présentant au maximum cinq lobes de forme plus ou moins triangulaire. Le limbe foliaire de 5 à 10 cm de long, a une largeur légèrement supérieure à la longueur. La base du limbe est  cordée. Le pétiole mesure 3 à 10 cm de long. Les pétioles et les feuilles sont velus. Les fleurs, de couleur blanche, jaunâtre ou rougeâtre, groupées en inflorescences axillaires, ont environ 2,5 cm de long. 
 Le fruit est une capsule de 3 à 4 cm de long  sur 2 à 3 cm de large, composée de trois à cinq loges. Les graines, ovales, mesurent 0,3 à 0,5 cm de long. Les fibres qui entourent les graines (coton) sont longues et blanches.
@@ -546,18 +560,55 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce Gossypium hirsutum a été décrite en premier par Linné et publiée en 1753 dans son Species plantarum ed. 2. 2: 975[2]. 
-Synonymes
-Selon The Plant List            (3 novembre 2020)[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Gossypium hirsutum a été décrite en premier par Linné et publiée en 1753 dans son Species plantarum ed. 2. 2: 975. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gossypium_hirsutum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gossypium_hirsutum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (3 novembre 2020)
 Gossypium barbadense var. hirsutum (L.) Triana &amp; Planch.
 Gossypium caespitosum Tod.
 Gossypium harrisii G.Watt
 Gossypium jamaicense Macfad.
 Gossypium lanceolatum Tod.
 Gossypium marie-galante G.Watt
-Gossypium mexicanum Tod.[3]
+Gossypium mexicanum Tod.
 Gossypium nervosum G.Watt
 Gossypium oligospermum Macfad.
 Gossypium palmeri G.Watt
@@ -567,8 +618,43 @@
 Gossypium volubile Ram.Goyena
 Hibiscus religiosus (L.) Kuntze
 Xylon religiosum (L.) Moench
-Formes, sous-espèces et variétés
-Selon NCBI  (3 novembre 2020)[4] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gossypium_hirsutum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gossypium_hirsutum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Formes, sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (3 novembre 2020) :
 sous-espèces :
 Gossypium hirsutum subsp. hirsutum
 Gossypium hirsutum subsp. latifolium (Murray) Roberty
